--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C87A3F-F6AA-41A0-BC51-B5E75F700C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD2542-2359-4333-B4BC-49D5F61C0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="392">
   <si>
     <t>group</t>
   </si>
@@ -1340,324 +1340,6 @@
   </si>
   <si>
     <t>#00BFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉心糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幡因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷灯蔷薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗马皇帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观众老爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZZZZZF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星三西米露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所行皆为何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3AdCa7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>句号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温情大白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amomia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禾Ray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惜源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿迟迟迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纱布Sa_Official</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白猪M82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社畜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isarr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么时候君士坦丁十一世如闪电般归来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望大家多多养猫，领养代替购买。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【前排征婚】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我和你一起爱左蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男魔仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏可以无限重开，可惜人生不能——活着吧，活着总比死了强。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#99ff99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢肥哥救我狗命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ed</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果可以的话希望人生重开后还能遇到你们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清影昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散修少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨某</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ainavol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不识周树人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坠星灬追月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>juvucuc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深秋的七宗罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淋漓雨声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废柴呀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天林灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱白安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王牛子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dis114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺其自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linkanin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最佳演员路人甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐身。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼岸星霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小沈0421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dorado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小糊涂仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姬子，不论重生多长次，我都等你回来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离淘气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If what you need didn't exist. just create it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五彩鸿鹄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#00ff00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为策划的脑洞和程序的脑细胞+发际线，干杯！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划让我写一句话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1719,9 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1998,21 +1677,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +1705,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2037,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2045,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2053,7 +1732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2061,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2069,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2077,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2085,7 +1764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2093,7 +1772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2101,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2109,7 +1788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2117,7 +1796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2125,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2136,7 +1815,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2144,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2152,7 +1831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2160,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2168,7 +1847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2179,7 +1858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2187,7 +1866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2195,7 +1874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2203,7 +1882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2211,7 +1890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2219,7 +1898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -2227,7 +1906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2235,7 +1914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2243,7 +1922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2251,7 +1930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2262,7 +1941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2270,7 +1949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2278,7 +1957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2286,7 +1965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -2294,7 +1973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -2302,7 +1981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2310,7 +1989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2318,7 +1997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -2326,7 +2005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2334,7 +2013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2342,7 +2021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -2350,7 +2029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2358,7 +2037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2366,7 +2045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2374,7 +2053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2382,7 +2061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2390,7 +2069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2398,7 +2077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2406,7 +2085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2414,7 +2093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -2422,7 +2101,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2430,7 +2109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -2438,7 +2117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2446,7 +2125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -2454,7 +2133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -2462,7 +2141,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -2470,7 +2149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -2478,7 +2157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -2486,7 +2165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -2494,7 +2173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -2502,7 +2181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -2510,7 +2189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -2518,7 +2197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -2526,7 +2205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -2534,7 +2213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -2542,7 +2221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -2550,7 +2229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -2558,7 +2237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -2566,7 +2245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -2574,7 +2253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -2582,7 +2261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -2590,7 +2269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -2598,7 +2277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -2606,7 +2285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -2614,7 +2293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -2622,7 +2301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -2630,7 +2309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -2641,7 +2320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -2649,7 +2328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -2657,7 +2336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -2665,7 +2344,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -2673,7 +2352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -2681,7 +2360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -2692,7 +2371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -2700,7 +2379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -2708,7 +2387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -2716,7 +2395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -2724,7 +2403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -2732,7 +2411,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -2740,7 +2419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -2748,7 +2427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2756,7 +2435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -2764,7 +2443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -2772,7 +2451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -2780,7 +2459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -2788,7 +2467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -2796,7 +2475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -2804,7 +2483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -2812,7 +2491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -2820,7 +2499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -2828,7 +2507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -2836,7 +2515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -2844,7 +2523,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -2852,7 +2531,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -2860,7 +2539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -2868,7 +2547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -2876,7 +2555,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -2884,7 +2563,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -2892,7 +2571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -2900,7 +2579,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -2908,7 +2587,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -2919,7 +2598,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -2930,7 +2609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -2938,7 +2617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -2946,7 +2625,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -2954,7 +2633,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -2962,7 +2641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -2970,7 +2649,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -2978,7 +2657,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -2986,7 +2665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -2994,7 +2673,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -3002,7 +2681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -3013,7 +2692,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -3021,7 +2700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -3029,7 +2708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3037,7 +2716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -3045,7 +2724,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -3053,7 +2732,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3061,7 +2740,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -3069,7 +2748,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -3077,7 +2756,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -3085,7 +2764,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -3093,7 +2772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -3101,7 +2780,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -3109,7 +2788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -3117,7 +2796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -3125,7 +2804,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -3133,7 +2812,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -3141,7 +2820,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -3149,7 +2828,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -3157,7 +2836,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -3165,7 +2844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -3173,7 +2852,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -3184,7 +2863,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -3192,7 +2871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -3200,7 +2879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -3208,7 +2887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -3216,7 +2895,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -3224,7 +2903,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3232,7 +2911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -3240,7 +2919,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -3248,7 +2927,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -3256,7 +2935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -3264,7 +2943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -3272,7 +2951,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -3280,7 +2959,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -3288,7 +2967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -3296,7 +2975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -3304,7 +2983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -3312,7 +2991,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -3320,7 +2999,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -3328,7 +3007,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -3336,7 +3015,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -3344,7 +3023,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -3355,7 +3034,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -3363,7 +3042,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -3371,7 +3050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -3379,7 +3058,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -3390,7 +3069,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -3401,7 +3080,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -3412,7 +3091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -3420,7 +3099,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -3428,7 +3107,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -3436,7 +3115,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -3444,7 +3123,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -3452,7 +3131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -3460,7 +3139,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -3468,7 +3147,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -3476,7 +3155,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -3484,7 +3163,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -3492,7 +3171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -3500,7 +3179,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -3508,7 +3187,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -3516,7 +3195,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -3524,7 +3203,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -3532,7 +3211,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -3540,7 +3219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -3548,7 +3227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -3556,7 +3235,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -3564,7 +3243,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -3572,7 +3251,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -3583,7 +3262,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -3591,7 +3270,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -3599,7 +3278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -3607,7 +3286,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -3615,7 +3294,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -3623,7 +3302,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -3631,7 +3310,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -3639,7 +3318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -3647,7 +3326,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -3655,7 +3334,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -3663,7 +3342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -3671,7 +3350,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -3679,7 +3358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -3687,7 +3366,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -3695,7 +3374,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -3703,7 +3382,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -3711,7 +3390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -3719,7 +3398,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -3727,7 +3406,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -3735,7 +3414,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -3743,7 +3422,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -3751,7 +3430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -3759,7 +3438,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -3770,7 +3449,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -3778,7 +3457,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -3789,7 +3468,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -3798,7 +3477,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -3806,7 +3485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -3814,7 +3493,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -3822,7 +3501,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -3830,7 +3509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -3838,7 +3517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -3846,7 +3525,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -3854,7 +3533,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -3862,7 +3541,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -3870,7 +3549,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -3881,7 +3560,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -3889,7 +3568,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -3897,7 +3576,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -3905,7 +3584,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -3913,7 +3592,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -3921,7 +3600,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2</v>
       </c>
@@ -3929,7 +3608,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -3937,7 +3616,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -3945,7 +3624,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -3953,7 +3632,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2</v>
       </c>
@@ -3961,7 +3640,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2</v>
       </c>
@@ -3969,7 +3648,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -3977,7 +3656,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -3985,7 +3664,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -3993,7 +3672,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -4004,7 +3683,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2</v>
       </c>
@@ -4012,7 +3691,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -4020,7 +3699,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4028,7 +3707,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2</v>
       </c>
@@ -4036,7 +3715,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2</v>
       </c>
@@ -4044,7 +3723,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -4052,7 +3731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2</v>
       </c>
@@ -4060,7 +3739,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2</v>
       </c>
@@ -4068,7 +3747,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2</v>
       </c>
@@ -4076,7 +3755,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2</v>
       </c>
@@ -4084,7 +3763,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -4095,7 +3774,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2</v>
       </c>
@@ -4103,7 +3782,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -4111,7 +3790,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2</v>
       </c>
@@ -4119,7 +3798,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -4127,7 +3806,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2</v>
       </c>
@@ -4135,7 +3814,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2</v>
       </c>
@@ -4143,7 +3822,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2</v>
       </c>
@@ -4151,7 +3830,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -4162,7 +3841,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2</v>
       </c>
@@ -4170,7 +3849,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -4178,7 +3857,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -4189,7 +3868,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -4197,7 +3876,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -4205,7 +3884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2</v>
       </c>
@@ -4213,7 +3892,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2</v>
       </c>
@@ -4221,7 +3900,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -4229,7 +3908,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2</v>
       </c>
@@ -4237,7 +3916,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2</v>
       </c>
@@ -4245,7 +3924,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2</v>
       </c>
@@ -4253,7 +3932,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -4261,7 +3940,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -4269,7 +3948,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -4277,7 +3956,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -4285,7 +3964,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -4293,7 +3972,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -4301,7 +3980,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2</v>
       </c>
@@ -4309,7 +3988,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -4317,7 +3996,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -4325,7 +4004,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2</v>
       </c>
@@ -4333,7 +4012,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -4341,7 +4020,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2</v>
       </c>
@@ -4349,7 +4028,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -4357,7 +4036,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -4368,7 +4047,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2</v>
       </c>
@@ -4376,7 +4055,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -4384,7 +4063,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -4392,7 +4071,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2</v>
       </c>
@@ -4400,7 +4079,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -4408,7 +4087,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2</v>
       </c>
@@ -4416,7 +4095,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -4424,7 +4103,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -4432,7 +4111,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2</v>
       </c>
@@ -4440,7 +4119,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -4448,7 +4127,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2</v>
       </c>
@@ -4456,7 +4135,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2</v>
       </c>
@@ -4464,7 +4143,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2</v>
       </c>
@@ -4472,7 +4151,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2</v>
       </c>
@@ -4480,7 +4159,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2</v>
       </c>
@@ -4488,7 +4167,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -4499,7 +4178,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -4507,7 +4186,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2</v>
       </c>
@@ -4515,7 +4194,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -4523,7 +4202,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2</v>
       </c>
@@ -4531,7 +4210,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2</v>
       </c>
@@ -4539,7 +4218,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -4547,7 +4226,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2</v>
       </c>
@@ -4555,7 +4234,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2</v>
       </c>
@@ -4563,7 +4242,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -4571,7 +4250,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -4579,7 +4258,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2</v>
       </c>
@@ -4587,7 +4266,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -4595,7 +4274,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2</v>
       </c>
@@ -4603,7 +4282,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2</v>
       </c>
@@ -4611,7 +4290,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2</v>
       </c>
@@ -4619,7 +4298,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -4627,7 +4306,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -4635,7 +4314,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2</v>
       </c>
@@ -4643,7 +4322,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>2</v>
       </c>
@@ -4651,7 +4330,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>2</v>
       </c>
@@ -4659,7 +4338,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2</v>
       </c>
@@ -4667,7 +4346,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -4675,7 +4354,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>2</v>
       </c>
@@ -4683,7 +4362,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -4691,7 +4370,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -4699,7 +4378,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -4707,7 +4386,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2</v>
       </c>
@@ -4715,7 +4394,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2</v>
       </c>
@@ -4723,7 +4402,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>2</v>
       </c>
@@ -4731,7 +4410,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -4739,7 +4418,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -4747,7 +4426,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -4755,7 +4434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2</v>
       </c>
@@ -4763,7 +4442,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2</v>
       </c>
@@ -4771,7 +4450,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2</v>
       </c>
@@ -4779,7 +4458,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2</v>
       </c>
@@ -4787,7 +4466,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2</v>
       </c>
@@ -4795,7 +4474,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>2</v>
       </c>
@@ -4803,7 +4482,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>2</v>
       </c>
@@ -4811,7 +4490,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -4819,7 +4498,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -4830,7 +4509,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -4838,7 +4517,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>2</v>
       </c>
@@ -4846,7 +4525,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>2</v>
       </c>
@@ -4854,7 +4533,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2</v>
       </c>
@@ -4862,7 +4541,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2</v>
       </c>
@@ -4870,7 +4549,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2</v>
       </c>
@@ -4878,7 +4557,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>2</v>
       </c>
@@ -4886,7 +4565,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>2</v>
       </c>
@@ -4894,7 +4573,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -4902,7 +4581,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>2</v>
       </c>
@@ -4910,7 +4589,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>2</v>
       </c>
@@ -4918,7 +4597,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -4926,7 +4605,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -4934,7 +4613,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -4942,7 +4621,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2</v>
       </c>
@@ -4950,7 +4629,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2</v>
       </c>
@@ -4958,7 +4637,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -4966,7 +4645,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -4974,7 +4653,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2</v>
       </c>
@@ -4982,7 +4661,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -4993,7 +4672,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -5001,7 +4680,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -5009,7 +4688,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2</v>
       </c>
@@ -5019,539 +4698,6 @@
       <c r="D366" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
-        <v>2</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="1">
-        <v>2</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="1">
-        <v>2</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1">
-        <v>2</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1">
-        <v>2</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1">
-        <v>2</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1">
-        <v>2</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="1">
-        <v>2</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1">
-        <v>2</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1">
-        <v>2</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1">
-        <v>2</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1">
-        <v>2</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1">
-        <v>2</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1">
-        <v>2</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1">
-        <v>2</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1">
-        <v>2</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1">
-        <v>1</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1">
-        <v>2</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" s="1">
-        <v>2</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
-        <v>2</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" s="1">
-        <v>1</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388" s="1">
-        <v>2</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1">
-        <v>2</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" s="1">
-        <v>2</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" s="1">
-        <v>2</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="1">
-        <v>1</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" s="1">
-        <v>2</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" s="1">
-        <v>2</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" s="1">
-        <v>2</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396" s="1">
-        <v>2</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397" s="1">
-        <v>2</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" s="1">
-        <v>2</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399" s="1">
-        <v>1</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400" s="1">
-        <v>2</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="1">
-        <v>2</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="1">
-        <v>2</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="1">
-        <v>2</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="1">
-        <v>2</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="1">
-        <v>2</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="1">
-        <v>2</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="1">
-        <v>2</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="1">
-        <v>2</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="1">
-        <v>2</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="1">
-        <v>2</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="1">
-        <v>2</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="1">
-        <v>1</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="1">
-        <v>2</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="1">
-        <v>2</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="1">
-        <v>2</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="1">
-        <v>2</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417" s="1">
-        <v>2</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418" s="1">
-        <v>2</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A419" s="1">
-        <v>2</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A420" s="1">
-        <v>1</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421" s="1">
-        <v>2</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422" s="1">
-        <v>2</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423" s="1">
-        <v>1</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" s="1">
-        <v>2</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425" s="1">
-        <v>2</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426" s="1">
-        <v>2</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A427" s="1">
-        <v>1</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428" s="1">
-        <v>2</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C428" s="3"/>
-      <c r="D428" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C429" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
